--- a/public/files/template/inventory/lap_bhp_pengeluaran.xlsx
+++ b/public/files/template/inventory/lap_bhp_pengeluaran.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="19875" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -769,7 +769,7 @@
   <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/files/template/inventory/lap_bhp_pengeluaran.xlsx
+++ b/public/files/template/inventory/lap_bhp_pengeluaran.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>:</t>
   </si>
@@ -169,24 +169,6 @@
   </si>
   <si>
     <t>[a.uraian]</t>
-  </si>
-  <si>
-    <t>[a.hargaakhir]</t>
-  </si>
-  <si>
-    <t>[a.jmlakhir]</t>
-  </si>
-  <si>
-    <t>[a.asetakhir]</t>
-  </si>
-  <si>
-    <t>[a.totalkeluar]</t>
-  </si>
-  <si>
-    <t>[a.stokakhir]</t>
-  </si>
-  <si>
-    <t>[a.nilaiaset]</t>
   </si>
   <si>
     <t>dari [b.tgl1] s/d [b.tgl2]</t>
@@ -413,56 +395,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,88 +767,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
+      <c r="A2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -965,404 +947,392 @@
     </row>
     <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="13" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="14" t="s">
+      <c r="AL9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AM9" s="12" t="s">
+      <c r="AM9" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19">
+      <c r="A10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="9">
         <v>2</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="9">
         <v>3</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="9">
         <v>4</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="9">
         <v>5</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="9">
         <v>6</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="9">
         <v>7</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="9">
         <v>8</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="9">
         <v>9</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="9">
         <v>10</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="9">
         <v>11</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="9">
         <v>12</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="9">
         <v>13</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="9">
         <v>14</v>
       </c>
-      <c r="T10" s="19">
+      <c r="T10" s="9">
         <v>15</v>
       </c>
-      <c r="U10" s="19">
+      <c r="U10" s="9">
         <v>16</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="9">
         <v>17</v>
       </c>
-      <c r="W10" s="19">
+      <c r="W10" s="9">
         <v>18</v>
       </c>
-      <c r="X10" s="19">
+      <c r="X10" s="9">
         <v>19</v>
       </c>
-      <c r="Y10" s="19">
+      <c r="Y10" s="9">
         <v>20</v>
       </c>
-      <c r="Z10" s="19">
+      <c r="Z10" s="9">
         <v>21</v>
       </c>
-      <c r="AA10" s="19">
+      <c r="AA10" s="9">
         <v>22</v>
       </c>
-      <c r="AB10" s="19">
+      <c r="AB10" s="9">
         <v>23</v>
       </c>
-      <c r="AC10" s="19">
+      <c r="AC10" s="9">
         <v>24</v>
       </c>
-      <c r="AD10" s="19">
+      <c r="AD10" s="9">
         <v>25</v>
       </c>
-      <c r="AE10" s="19">
+      <c r="AE10" s="9">
         <v>26</v>
       </c>
-      <c r="AF10" s="19">
+      <c r="AF10" s="9">
         <v>27</v>
       </c>
-      <c r="AG10" s="19">
+      <c r="AG10" s="9">
         <v>28</v>
       </c>
-      <c r="AH10" s="19">
+      <c r="AH10" s="9">
         <v>29</v>
       </c>
-      <c r="AI10" s="19">
+      <c r="AI10" s="9">
         <v>30</v>
       </c>
-      <c r="AJ10" s="19">
+      <c r="AJ10" s="9">
         <v>31</v>
       </c>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="18"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="19"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="10">
         <v>1</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="11">
         <v>2</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="11">
         <v>3</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="11">
         <v>4</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="11">
         <v>5</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="11">
         <v>6</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="11">
         <v>7</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="11">
         <v>8</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="11">
         <v>9</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="11">
         <v>10</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="11">
         <v>11</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="11">
         <v>12</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="11">
         <v>13</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="11">
         <v>14</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="11">
         <v>15</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="11">
         <v>16</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="11">
         <v>17</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="11">
         <v>18</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="11">
         <v>19</v>
       </c>
-      <c r="T11" s="23">
+      <c r="T11" s="11">
         <v>20</v>
       </c>
-      <c r="U11" s="23">
+      <c r="U11" s="11">
         <v>21</v>
       </c>
-      <c r="V11" s="23">
+      <c r="V11" s="11">
         <v>22</v>
       </c>
-      <c r="W11" s="23">
+      <c r="W11" s="11">
         <v>23</v>
       </c>
-      <c r="X11" s="23">
+      <c r="X11" s="11">
         <v>24</v>
       </c>
-      <c r="Y11" s="23">
+      <c r="Y11" s="11">
         <v>25</v>
       </c>
-      <c r="Z11" s="23">
+      <c r="Z11" s="11">
         <v>26</v>
       </c>
-      <c r="AA11" s="23">
+      <c r="AA11" s="11">
         <v>27</v>
       </c>
-      <c r="AB11" s="23">
+      <c r="AB11" s="11">
         <v>28</v>
       </c>
-      <c r="AC11" s="23">
+      <c r="AC11" s="11">
         <v>29</v>
       </c>
-      <c r="AD11" s="23">
+      <c r="AD11" s="11">
         <v>30</v>
       </c>
-      <c r="AE11" s="23">
+      <c r="AE11" s="11">
         <v>31</v>
       </c>
-      <c r="AF11" s="23">
+      <c r="AF11" s="11">
         <v>32</v>
       </c>
-      <c r="AG11" s="23">
+      <c r="AG11" s="11">
         <v>33</v>
       </c>
-      <c r="AH11" s="23">
+      <c r="AH11" s="11">
         <v>34</v>
       </c>
-      <c r="AI11" s="23">
+      <c r="AI11" s="11">
         <v>35</v>
       </c>
-      <c r="AJ11" s="23">
+      <c r="AJ11" s="11">
         <v>36</v>
       </c>
-      <c r="AK11" s="23">
+      <c r="AK11" s="11">
         <v>37</v>
       </c>
-      <c r="AL11" s="23">
+      <c r="AL11" s="11">
         <v>38</v>
       </c>
-      <c r="AM11" s="23">
+      <c r="AM11" s="11">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="25" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="25" t="s">
+      <c r="P12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" s="25" t="s">
+      <c r="Q12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="T12" s="25" t="s">
+      <c r="T12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="U12" s="25" t="s">
+      <c r="U12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="V12" s="25" t="s">
+      <c r="V12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="W12" s="25" t="s">
+      <c r="W12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="X12" s="25" t="s">
+      <c r="X12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Y12" s="25" t="s">
+      <c r="Y12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Z12" s="25" t="s">
+      <c r="Z12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AA12" s="25" t="s">
+      <c r="AA12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AB12" s="25" t="s">
+      <c r="AB12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AC12" s="25" t="s">
+      <c r="AC12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AD12" s="25" t="s">
+      <c r="AD12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AE12" s="25" t="s">
+      <c r="AE12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AF12" s="25" t="s">
+      <c r="AF12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AG12" s="25" t="s">
+      <c r="AG12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AH12" s="25" t="s">
+      <c r="AH12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AI12" s="25" t="s">
+      <c r="AI12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AJ12" s="25" t="s">
+      <c r="AJ12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AK12" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL12" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM12" s="25" t="s">
-        <v>56</v>
-      </c>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/public/files/template/inventory/lap_bhp_pengeluaran.xlsx
+++ b/public/files/template/inventory/lap_bhp_pengeluaran.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>:</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>dari [b.tgl1] s/d [b.tgl2]</t>
+  </si>
+  <si>
+    <t>[a.jumlah]</t>
+  </si>
+  <si>
+    <t>[a.harga]</t>
   </si>
 </sst>
 </file>
@@ -369,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -445,6 +451,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -750,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AM13" sqref="AM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,105 +1243,121 @@
       <c r="B12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
+      <c r="C12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="12" t="e">
+        <f>C12*D12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="O12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="Q12" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="R12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="S12" s="12" t="s">
+      <c r="S12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="T12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="U12" s="12" t="s">
+      <c r="U12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="V12" s="12" t="s">
+      <c r="V12" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="W12" s="12" t="s">
+      <c r="W12" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="X12" s="12" t="s">
+      <c r="X12" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="Y12" s="12" t="s">
+      <c r="Y12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="Z12" s="12" t="s">
+      <c r="Z12" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AA12" s="12" t="s">
+      <c r="AA12" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AB12" s="12" t="s">
+      <c r="AB12" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AC12" s="12" t="s">
+      <c r="AC12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AD12" s="12" t="s">
+      <c r="AD12" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AE12" s="12" t="s">
+      <c r="AE12" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AF12" s="12" t="s">
+      <c r="AF12" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AG12" s="12" t="s">
+      <c r="AG12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AH12" s="12" t="s">
+      <c r="AH12" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="AI12" s="12" t="s">
+      <c r="AI12" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="AJ12" s="12" t="s">
+      <c r="AJ12" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
+      <c r="AK12" s="12">
+        <f>SUM(F12:AJ12)</f>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="12" t="e">
+        <f>D12-AK12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM12" s="12" t="e">
+        <f>AL12*C12</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/public/files/template/inventory/lap_bhp_pengeluaran.xlsx
+++ b/public/files/template/inventory/lap_bhp_pengeluaran.xlsx
@@ -16,26 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>[b.kd_prov]</t>
-  </si>
-  <si>
-    <t>[b.kd_kab]</t>
-  </si>
-  <si>
-    <t>BIDANG KESEHATAN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Tanggal Export</t>
   </si>
   <si>
-    <t>[b.tanggal_export]</t>
-  </si>
-  <si>
     <t>Provinsi</t>
   </si>
   <si>
@@ -178,6 +163,33 @@
   </si>
   <si>
     <t>[a.harga]</t>
+  </si>
+  <si>
+    <t>[a.nilai_aset]</t>
+  </si>
+  <si>
+    <t>: [b.kd_prov]</t>
+  </si>
+  <si>
+    <t>: [b.kd_kab]</t>
+  </si>
+  <si>
+    <t>: BIDANG KESEHATAN</t>
+  </si>
+  <si>
+    <t>: [b.tanggal_export]</t>
+  </si>
+  <si>
+    <t>Tanggal Opname</t>
+  </si>
+  <si>
+    <t>Petugas</t>
+  </si>
+  <si>
+    <t>[a.tgl_opname]</t>
+  </si>
+  <si>
+    <t>[a.petugas]</t>
   </si>
 </sst>
 </file>
@@ -414,6 +426,9 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -451,9 +466,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -757,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AM13" sqref="AM13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AN19" sqref="AN19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,112 +780,111 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="36" width="4.85546875" customWidth="1"/>
-    <col min="37" max="37" width="11.5703125" customWidth="1"/>
-    <col min="38" max="38" width="13.28515625" customWidth="1"/>
-    <col min="39" max="39" width="20.5703125" customWidth="1"/>
+    <col min="5" max="7" width="18" customWidth="1"/>
+    <col min="8" max="38" width="4.85546875" customWidth="1"/>
+    <col min="39" max="39" width="11.5703125" customWidth="1"/>
+    <col min="40" max="40" width="13.28515625" customWidth="1"/>
+    <col min="41" max="41" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
+    <row r="1" spans="1:41" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
     </row>
-    <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
+    <row r="2" spans="1:41" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="C3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -881,22 +892,19 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -904,22 +912,19 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="C5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -927,21 +932,18 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="C6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -953,171 +955,181 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
     </row>
-    <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="8" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="AN9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="AO9" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2</v>
+      </c>
+      <c r="J10" s="9">
+        <v>3</v>
+      </c>
+      <c r="K10" s="9">
+        <v>4</v>
+      </c>
+      <c r="L10" s="9">
+        <v>5</v>
+      </c>
+      <c r="M10" s="9">
+        <v>6</v>
+      </c>
+      <c r="N10" s="9">
+        <v>7</v>
+      </c>
+      <c r="O10" s="9">
+        <v>8</v>
+      </c>
+      <c r="P10" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>10</v>
+      </c>
+      <c r="R10" s="9">
+        <v>11</v>
+      </c>
+      <c r="S10" s="9">
         <v>12</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="T10" s="9">
         <v>13</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="U10" s="9">
         <v>14</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23"/>
-      <c r="AI9" s="23"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="14" t="s">
+      <c r="V10" s="9">
         <v>15</v>
       </c>
-      <c r="AL9" s="16" t="s">
+      <c r="W10" s="9">
         <v>16</v>
       </c>
-      <c r="AM9" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="X10" s="9">
+        <v>17</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>18</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>19</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>21</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>22</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>23</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>24</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>25</v>
+      </c>
+      <c r="AG10" s="9">
+        <v>26</v>
+      </c>
+      <c r="AH10" s="9">
+        <v>27</v>
+      </c>
+      <c r="AI10" s="9">
+        <v>28</v>
+      </c>
+      <c r="AJ10" s="9">
+        <v>29</v>
+      </c>
+      <c r="AK10" s="9">
+        <v>30</v>
+      </c>
+      <c r="AL10" s="9">
+        <v>31</v>
+      </c>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="20"/>
     </row>
-    <row r="10" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <v>2</v>
-      </c>
-      <c r="H10" s="9">
-        <v>3</v>
-      </c>
-      <c r="I10" s="9">
-        <v>4</v>
-      </c>
-      <c r="J10" s="9">
-        <v>5</v>
-      </c>
-      <c r="K10" s="9">
-        <v>6</v>
-      </c>
-      <c r="L10" s="9">
-        <v>7</v>
-      </c>
-      <c r="M10" s="9">
-        <v>8</v>
-      </c>
-      <c r="N10" s="9">
-        <v>9</v>
-      </c>
-      <c r="O10" s="9">
-        <v>10</v>
-      </c>
-      <c r="P10" s="9">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>12</v>
-      </c>
-      <c r="R10" s="9">
-        <v>13</v>
-      </c>
-      <c r="S10" s="9">
-        <v>14</v>
-      </c>
-      <c r="T10" s="9">
-        <v>15</v>
-      </c>
-      <c r="U10" s="9">
-        <v>16</v>
-      </c>
-      <c r="V10" s="9">
-        <v>17</v>
-      </c>
-      <c r="W10" s="9">
-        <v>18</v>
-      </c>
-      <c r="X10" s="9">
-        <v>19</v>
-      </c>
-      <c r="Y10" s="9">
-        <v>20</v>
-      </c>
-      <c r="Z10" s="9">
-        <v>21</v>
-      </c>
-      <c r="AA10" s="9">
-        <v>22</v>
-      </c>
-      <c r="AB10" s="9">
-        <v>23</v>
-      </c>
-      <c r="AC10" s="9">
-        <v>24</v>
-      </c>
-      <c r="AD10" s="9">
-        <v>25</v>
-      </c>
-      <c r="AE10" s="9">
-        <v>26</v>
-      </c>
-      <c r="AF10" s="9">
-        <v>27</v>
-      </c>
-      <c r="AG10" s="9">
-        <v>28</v>
-      </c>
-      <c r="AH10" s="9">
-        <v>29</v>
-      </c>
-      <c r="AI10" s="9">
-        <v>30</v>
-      </c>
-      <c r="AJ10" s="9">
-        <v>31</v>
-      </c>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="19"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>1</v>
       </c>
@@ -1133,245 +1145,245 @@
       <c r="E11" s="11">
         <v>5</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
         <v>6</v>
       </c>
-      <c r="G11" s="11">
+      <c r="I11" s="11">
         <v>7</v>
       </c>
-      <c r="H11" s="11">
+      <c r="J11" s="11">
         <v>8</v>
       </c>
-      <c r="I11" s="11">
+      <c r="K11" s="11">
         <v>9</v>
       </c>
-      <c r="J11" s="11">
+      <c r="L11" s="11">
         <v>10</v>
       </c>
-      <c r="K11" s="11">
+      <c r="M11" s="11">
         <v>11</v>
       </c>
-      <c r="L11" s="11">
+      <c r="N11" s="11">
         <v>12</v>
       </c>
-      <c r="M11" s="11">
+      <c r="O11" s="11">
         <v>13</v>
       </c>
-      <c r="N11" s="11">
+      <c r="P11" s="11">
         <v>14</v>
       </c>
-      <c r="O11" s="11">
+      <c r="Q11" s="11">
         <v>15</v>
       </c>
-      <c r="P11" s="11">
+      <c r="R11" s="11">
         <v>16</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="S11" s="11">
         <v>17</v>
       </c>
-      <c r="R11" s="11">
+      <c r="T11" s="11">
         <v>18</v>
       </c>
-      <c r="S11" s="11">
+      <c r="U11" s="11">
         <v>19</v>
       </c>
-      <c r="T11" s="11">
+      <c r="V11" s="11">
         <v>20</v>
       </c>
-      <c r="U11" s="11">
+      <c r="W11" s="11">
         <v>21</v>
       </c>
-      <c r="V11" s="11">
+      <c r="X11" s="11">
         <v>22</v>
       </c>
-      <c r="W11" s="11">
+      <c r="Y11" s="11">
         <v>23</v>
       </c>
-      <c r="X11" s="11">
+      <c r="Z11" s="11">
         <v>24</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="AA11" s="11">
         <v>25</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="AB11" s="11">
         <v>26</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AC11" s="11">
         <v>27</v>
       </c>
-      <c r="AB11" s="11">
+      <c r="AD11" s="11">
         <v>28</v>
       </c>
-      <c r="AC11" s="11">
+      <c r="AE11" s="11">
         <v>29</v>
       </c>
-      <c r="AD11" s="11">
+      <c r="AF11" s="11">
         <v>30</v>
       </c>
-      <c r="AE11" s="11">
+      <c r="AG11" s="11">
         <v>31</v>
       </c>
-      <c r="AF11" s="11">
+      <c r="AH11" s="11">
         <v>32</v>
       </c>
-      <c r="AG11" s="11">
+      <c r="AI11" s="11">
         <v>33</v>
       </c>
-      <c r="AH11" s="11">
+      <c r="AJ11" s="11">
         <v>34</v>
       </c>
-      <c r="AI11" s="11">
+      <c r="AK11" s="11">
         <v>35</v>
       </c>
-      <c r="AJ11" s="11">
+      <c r="AL11" s="11">
         <v>36</v>
       </c>
-      <c r="AK11" s="11">
+      <c r="AM11" s="11">
         <v>37</v>
       </c>
-      <c r="AL11" s="11">
+      <c r="AN11" s="11">
         <v>38</v>
       </c>
-      <c r="AM11" s="11">
+      <c r="AO11" s="11">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="12" t="e">
-        <f>C12*D12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="N12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="O12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="P12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="Q12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="R12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="S12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="27" t="s">
+      <c r="U12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="27" t="s">
+      <c r="V12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="27" t="s">
+      <c r="W12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="X12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="R12" s="27" t="s">
+      <c r="Y12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S12" s="27" t="s">
+      <c r="Z12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="T12" s="27" t="s">
+      <c r="AA12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="U12" s="27" t="s">
+      <c r="AB12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="V12" s="27" t="s">
+      <c r="AC12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="W12" s="27" t="s">
+      <c r="AD12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="X12" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y12" s="27" t="s">
+      <c r="AF12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="Z12" s="27" t="s">
+      <c r="AG12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AA12" s="27" t="s">
+      <c r="AH12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AB12" s="27" t="s">
+      <c r="AI12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AC12" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD12" s="27" t="s">
+      <c r="AK12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AE12" s="27" t="s">
+      <c r="AL12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AF12" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG12" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI12" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ12" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK12" s="12">
-        <f>SUM(F12:AJ12)</f>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="12" t="e">
-        <f>D12-AK12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AM12" s="12" t="e">
-        <f>AL12*C12</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AL9:AL10"/>
+  <mergeCells count="13">
     <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A2:AL2"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="A1:AN1"/>
+    <mergeCell ref="A2:AN2"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:AJ9"/>
+    <mergeCell ref="H9:AL9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/files/template/inventory/lap_bhp_pengeluaran.xlsx
+++ b/public/files/template/inventory/lap_bhp_pengeluaran.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Tanggal Export</t>
   </si>
@@ -159,15 +159,9 @@
     <t>dari [b.tgl1] s/d [b.tgl2]</t>
   </si>
   <si>
-    <t>[a.jumlah]</t>
-  </si>
-  <si>
     <t>[a.harga]</t>
   </si>
   <si>
-    <t>[a.nilai_aset]</t>
-  </si>
-  <si>
     <t>: [b.kd_prov]</t>
   </si>
   <si>
@@ -180,16 +174,19 @@
     <t>: [b.tanggal_export]</t>
   </si>
   <si>
-    <t>Tanggal Opname</t>
-  </si>
-  <si>
-    <t>Petugas</t>
-  </si>
-  <si>
-    <t>[a.tgl_opname]</t>
-  </si>
-  <si>
-    <t>[a.petugas]</t>
+    <t>[a.jumlah_awal]</t>
+  </si>
+  <si>
+    <t>[a.nilai_aset_awal]</t>
+  </si>
+  <si>
+    <t>[a.total]</t>
+  </si>
+  <si>
+    <t>[a.jumlah_op]</t>
+  </si>
+  <si>
+    <t>[a.nilai_aset_total]</t>
   </si>
 </sst>
 </file>
@@ -769,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AN19" sqref="AN19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AM13" sqref="AM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,14 +777,14 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="7" width="18" customWidth="1"/>
-    <col min="8" max="38" width="4.85546875" customWidth="1"/>
-    <col min="39" max="39" width="11.5703125" customWidth="1"/>
-    <col min="40" max="40" width="13.28515625" customWidth="1"/>
-    <col min="41" max="41" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="36" width="4.85546875" customWidth="1"/>
+    <col min="37" max="37" width="11.5703125" customWidth="1"/>
+    <col min="38" max="38" width="13.28515625" customWidth="1"/>
+    <col min="39" max="39" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
@@ -828,10 +825,8 @@
       <c r="AJ1" s="21"/>
       <c r="AK1" s="21"/>
       <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
     </row>
-    <row r="2" spans="1:41" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>46</v>
       </c>
@@ -872,19 +867,19 @@
       <c r="AJ2" s="21"/>
       <c r="AK2" s="21"/>
       <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3"/>
+      <c r="H3" s="1"/>
       <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -892,19 +887,19 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3"/>
+      <c r="H4" s="1"/>
       <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -912,19 +907,19 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3"/>
+      <c r="H5" s="1"/>
       <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -932,18 +927,18 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -955,11 +950,9 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
     </row>
-    <row r="8" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>4</v>
       </c>
@@ -975,15 +968,11 @@
       <c r="E9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="24" t="s">
+      <c r="F9" s="24" t="s">
         <v>9</v>
       </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -1012,124 +1001,120 @@
       <c r="AH9" s="24"/>
       <c r="AI9" s="24"/>
       <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="15" t="s">
+      <c r="AK9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AN9" s="17" t="s">
+      <c r="AL9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AO9" s="19" t="s">
+      <c r="AM9" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="25"/>
       <c r="C10" s="27"/>
       <c r="D10" s="25"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2</v>
+      </c>
       <c r="H10" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L10" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M10" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N10" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O10" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P10" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R10" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S10" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T10" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U10" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V10" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W10" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="X10" s="9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y10" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z10" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA10" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AB10" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC10" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AD10" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE10" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF10" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG10" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH10" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI10" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ10" s="9">
-        <v>29</v>
-      </c>
-      <c r="AK10" s="9">
-        <v>30</v>
-      </c>
-      <c r="AL10" s="9">
         <v>31</v>
       </c>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="18"/>
-      <c r="AO10" s="20"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="20"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>1</v>
       </c>
@@ -1145,112 +1130,110 @@
       <c r="E11" s="11">
         <v>5</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="11">
+        <v>6</v>
+      </c>
+      <c r="G11" s="11">
+        <v>7</v>
+      </c>
       <c r="H11" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I11" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J11" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K11" s="11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L11" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M11" s="11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N11" s="11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O11" s="11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P11" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R11" s="11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S11" s="11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T11" s="11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U11" s="11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V11" s="11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="W11" s="11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X11" s="11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y11" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z11" s="11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA11" s="11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB11" s="11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AC11" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AD11" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE11" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AF11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AH11" s="11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI11" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AJ11" s="11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK11" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL11" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM11" s="11">
-        <v>37</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>38</v>
-      </c>
-      <c r="AO11" s="11">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>44</v>
       </c>
@@ -1258,132 +1241,130 @@
         <v>45</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="U12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="V12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="W12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI12" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="11">
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AL9:AL10"/>
     <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="A1:AN1"/>
-    <mergeCell ref="A2:AN2"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A2:AL2"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="H9:AL9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:AJ9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
